--- a/dicionario_dados/dicionarioDeDados.xlsx
+++ b/dicionario_dados/dicionarioDeDados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="110">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -67,6 +67,7 @@
         <color rgb="FF111111"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 – </t>
     </r>
@@ -76,6 +77,7 @@
         <color rgb="FF111111"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.147.483.647</t>
     </r>
@@ -93,25 +95,7 @@
     <t xml:space="preserve">Cliente</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 – </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2.147.483.647</t>
-    </r>
+    <t xml:space="preserve">1 – 2.147.483.647</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -121,9 +105,6 @@
   </si>
   <si>
     <t xml:space="preserve">Celular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 – 2.147.483.647</t>
   </si>
   <si>
     <t xml:space="preserve">FK que vem da tabela Celular</t>
@@ -151,6 +132,7 @@
         <color theme="1"/>
         <rFont val="Courier New"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.7976931348623157E+308</t>
     </r>
@@ -207,7 +189,7 @@
     <t xml:space="preserve">Colunas</t>
   </si>
   <si>
-    <t xml:space="preserve">idx_clustered</t>
+    <t xml:space="preserve">idx_clustered_pagamento</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -225,6 +207,7 @@
         <color rgb="FF111111"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 – </t>
     </r>
@@ -234,6 +217,7 @@
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.147.483.647</t>
     </r>
@@ -272,6 +256,9 @@
     <t xml:space="preserve">Descrição do sinistro</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_sinistro</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa quem irá fornecer os materias do celular caso ocorra o sinistro</t>
   </si>
   <si>
@@ -293,6 +280,9 @@
     <t xml:space="preserve">Descrição do fornecedor</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_fornecedor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tipo de pagamento</t>
   </si>
   <si>
@@ -305,6 +295,9 @@
     <t xml:space="preserve">Descrição do tipo de pagamento</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_tipo_pagamento</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apolice</t>
   </si>
   <si>
@@ -344,6 +337,9 @@
     <t xml:space="preserve">FK que vem da tabela funcionario</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_apolice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa os dados do funcionario que trabalha na loja</t>
   </si>
   <si>
@@ -368,6 +364,9 @@
     <t xml:space="preserve">Contato telefone do funcionario</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_funcionario</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa o cliente da loja</t>
   </si>
   <si>
@@ -380,6 +379,9 @@
     <t xml:space="preserve">Contato telefone do cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_clustered_cliente</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa o celular </t>
   </si>
   <si>
@@ -402,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">Marca do celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_clustered_celular</t>
   </si>
 </sst>
 </file>
@@ -411,7 +416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,36 +466,28 @@
       <color rgb="FF111111"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -498,12 +495,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -567,84 +558,76 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -899,122 +882,122 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J102" activeCellId="0" sqref="J102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="3.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1023,11 +1006,11 @@
         <v>21</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>22</v>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -1036,20 +1019,20 @@
       <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -1057,19 +1040,19 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
+      <c r="D9" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
@@ -1078,20 +1061,20 @@
       <c r="G9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>29</v>
+      <c r="H9" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -1099,206 +1082,206 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1307,11 +1290,11 @@
         <v>21</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>22</v>
+      <c r="D24" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>14</v>
@@ -1320,40 +1303,40 @@
       <c r="G24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>23</v>
+      <c r="H24" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="8" t="s">
-        <v>51</v>
+      <c r="H25" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>14</v>
@@ -1361,18 +1344,18 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1381,202 +1364,202 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="E38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="18" t="n">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1585,155 +1568,155 @@
         <v>2</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="15" t="s">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2" t="s">
-        <v>69</v>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1741,176 +1724,176 @@
         <v>2</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="8" t="s">
-        <v>70</v>
+      <c r="H50" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="15"/>
+      <c r="E53" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15" t="s">
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
+      <c r="E60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1919,11 +1902,11 @@
         <v>21</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>22</v>
+      <c r="D61" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>14</v>
@@ -1932,60 +1915,60 @@
       <c r="G61" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>23</v>
+      <c r="H61" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="17" t="s">
-        <v>74</v>
+      <c r="C62" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="8" t="s">
-        <v>76</v>
+      <c r="H62" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="17" t="s">
-        <v>74</v>
+      <c r="C63" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="8" t="s">
-        <v>79</v>
+      <c r="H63" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" s="13"/>
+      <c r="A64" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="12"/>
       <c r="C64" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>14</v>
@@ -1993,19 +1976,19 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="17" t="s">
+      <c r="A65" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>48</v>
+      <c r="D65" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>14</v>
@@ -2014,195 +1997,195 @@
       <c r="G65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>83</v>
+      <c r="H65" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15" t="s">
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="16"/>
-      <c r="E68" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2" t="s">
-        <v>72</v>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="3"/>
+      <c r="C75" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2" t="s">
-        <v>85</v>
+      <c r="E75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B76" s="7"/>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2" t="s">
-        <v>87</v>
+      <c r="E76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B77" s="7"/>
-      <c r="C77" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D77" s="19" t="n">
+      <c r="C77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="17" t="n">
         <v>14</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -2210,19 +2193,19 @@
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="8" t="s">
-        <v>89</v>
+      <c r="H77" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B78" s="7"/>
-      <c r="C78" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D78" s="19" t="n">
+      <c r="C78" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="17" t="n">
         <v>14</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -2230,195 +2213,195 @@
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="8" t="s">
-        <v>91</v>
+      <c r="H78" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="15"/>
+      <c r="E81" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="15" t="s">
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2" t="s">
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="17" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2" t="s">
+      <c r="E88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B89" s="7"/>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2" t="s">
-        <v>93</v>
+      <c r="E89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7"/>
-      <c r="C90" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="19" t="n">
+      <c r="C90" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="17" t="n">
         <v>14</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -2426,19 +2409,19 @@
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="8" t="s">
-        <v>94</v>
+      <c r="H90" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" s="7"/>
-      <c r="C91" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="19" t="n">
+      <c r="C91" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="17" t="n">
         <v>14</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -2446,277 +2429,277 @@
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="8" t="s">
-        <v>95</v>
+      <c r="H91" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="15"/>
+      <c r="E94" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="15" t="s">
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2" t="s">
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="17" t="s">
+      <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D101" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
-        <v>98</v>
+      <c r="E101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B102" s="7"/>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B103" s="7"/>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
-      <c r="H103" s="8" t="s">
-        <v>103</v>
+      <c r="H103" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2" t="s">
+      <c r="E104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="15"/>
+      <c r="E107" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dicionario_dados/dicionarioDeDados.xlsx
+++ b/dicionario_dados/dicionarioDeDados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="121">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -259,6 +259,12 @@
     <t xml:space="preserve">idx_clustered_sinistro</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_sinistro_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_sinistro_data</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa quem irá fornecer os materias do celular caso ocorra o sinistro</t>
   </si>
   <si>
@@ -340,6 +346,12 @@
     <t xml:space="preserve">idx_clustered_apolice</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_apolice_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_apolice_funcionario</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa os dados do funcionario que trabalha na loja</t>
   </si>
   <si>
@@ -367,6 +379,15 @@
     <t xml:space="preserve">idx_clustered_funcionario</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_funcionario_cpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_funcionario_nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa o cliente da loja</t>
   </si>
   <si>
@@ -382,6 +403,12 @@
     <t xml:space="preserve">idx_clustered_cliente</t>
   </si>
   <si>
+    <t xml:space="preserve">idx_cliente_cpf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_cliente_nome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Esta tabela representa o celular </t>
   </si>
   <si>
@@ -407,6 +434,12 @@
   </si>
   <si>
     <t xml:space="preserve">idx_clustered_celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_celular_cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idx_celular_marca</t>
   </si>
 </sst>
 </file>
@@ -416,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +529,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -558,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -623,12 +662,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -880,10 +931,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E109" activeCellId="0" sqref="E109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1437,538 +1488,530 @@
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
     </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+    </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7"/>
+      <c r="A40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="13" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="B47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D52" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14" t="s">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="13" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F55" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+      <c r="B57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="E61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3" t="s">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3" t="s">
+      <c r="E62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H63" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="12"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>14</v>
@@ -1976,742 +2019,913 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12" t="s">
+    <row r="66" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="7" t="s">
+      <c r="B66" s="12"/>
+      <c r="C66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7" t="s">
+      <c r="E67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="H67" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="s">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14" t="s">
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="7" t="s">
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7" t="s">
+      <c r="E79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7" t="s">
+      <c r="E80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7" t="s">
+      <c r="D81" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="15"/>
-      <c r="E81" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
+      <c r="D82" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="A85" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A86" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A87" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="16"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D90" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7" t="s">
-        <v>99</v>
-      </c>
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
+      <c r="A100" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7" t="s">
+      <c r="D100" s="15"/>
+      <c r="E100" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3" t="s">
+      <c r="B101" s="16"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="16"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2" t="s">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="14" t="s">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="15"/>
-      <c r="E107" s="13" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-    </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="16"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="16"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="137">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -2745,88 +2959,110 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="A37:H37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="A49:H49"/>
     <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="A59:H59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="A67:B67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A76:H76"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
-    <mergeCell ref="F80:H80"/>
     <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:H81"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="A85:H85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:H85"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="F86:H86"/>
     <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="F87:H87"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A92:B92"/>
     <mergeCell ref="A93:B93"/>
-    <mergeCell ref="F93:H93"/>
     <mergeCell ref="A94:B94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="B96:H96"/>
-    <mergeCell ref="B97:H97"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
     <mergeCell ref="A98:H98"/>
     <mergeCell ref="A99:B99"/>
+    <mergeCell ref="F99:H99"/>
     <mergeCell ref="A100:B100"/>
+    <mergeCell ref="F100:H100"/>
     <mergeCell ref="A101:B101"/>
+    <mergeCell ref="F101:H101"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="F102:H102"/>
     <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="B105:H105"/>
+    <mergeCell ref="B106:H106"/>
+    <mergeCell ref="A107:H107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="F118:H118"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
